--- a/sampl.xlsx
+++ b/sampl.xlsx
@@ -11,6 +11,15 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>かきかえてみた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,12 +361,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sampl.xlsx
+++ b/sampl.xlsx
@@ -14,9 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>かきかえてみた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もういっかい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,14 +365,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7"/>
+  <dimension ref="A5:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>0</v>
